--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,18 +46,18 @@
     <t>forced</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -70,12 +70,12 @@
     <t>drop</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -88,109 +88,136 @@
     <t>19</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -548,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -638,7 +665,7 @@
         <v>70</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -667,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7586206896551724</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -685,10 +712,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4">
         <v>0.9152542372881356</v>
@@ -717,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6764705882352942</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.9083333333333333</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="M5">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -759,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -767,7 +794,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6388888888888888</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C6">
         <v>23</v>
@@ -785,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.8571428571428571</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -809,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -817,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6216216216216216</v>
+        <v>0.5675675675675675</v>
       </c>
       <c r="C7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.8485639686684073</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L7">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="M7">
-        <v>325</v>
+        <v>22</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -859,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -867,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6052631578947368</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -888,16 +915,16 @@
         <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.8275862068965517</v>
+        <v>0.8301886792452831</v>
       </c>
       <c r="L8">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="M8">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -909,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -917,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4497354497354497</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C9">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D9">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -935,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.8207547169811321</v>
+        <v>0.825065274151436</v>
       </c>
       <c r="L9">
-        <v>87</v>
+        <v>316</v>
       </c>
       <c r="M9">
-        <v>87</v>
+        <v>316</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -959,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>19</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -967,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.436046511627907</v>
+        <v>0.4612403100775194</v>
       </c>
       <c r="C10">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D10">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -985,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.8076923076923077</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L10">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="M10">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1009,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1017,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.392156862745098</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1035,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K11">
         <v>0.8055555555555556</v>
@@ -1067,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3898305084745763</v>
+        <v>0.4067796610169492</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1085,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.796875</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1109,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1117,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.2953020134228188</v>
+        <v>0.3466666666666667</v>
       </c>
       <c r="C13">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1135,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.8048780487804879</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1159,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1167,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2533333333333334</v>
+        <v>0.3087248322147651</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1185,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.7916666666666666</v>
+        <v>0.78125</v>
       </c>
       <c r="L14">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="M14">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1209,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1217,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1587301587301587</v>
+        <v>0.1468253968253968</v>
       </c>
       <c r="C15">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1235,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K15">
         <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1259,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1267,28 +1294,28 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.09139784946236559</v>
+        <v>0.07258064516129033</v>
       </c>
       <c r="C16">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E16">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="F16">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16">
         <v>0.7746478873239436</v>
@@ -1317,37 +1344,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01391585760517799</v>
+        <v>0.02036857419980601</v>
       </c>
       <c r="C17">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D17">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E17">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
       <c r="F17">
-        <v>0.72</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>3047</v>
+        <v>3030</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.7734375</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L17">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="M17">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1359,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1367,87 +1394,63 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01318267419962335</v>
+        <v>0.01319509896324222</v>
       </c>
       <c r="C18">
         <v>28</v>
       </c>
       <c r="D18">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E18">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="F18">
-        <v>0.6</v>
+        <v>0.5700000000000001</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>0.75</v>
+      </c>
+      <c r="L18">
+        <v>36</v>
+      </c>
+      <c r="M18">
+        <v>36</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K18">
-        <v>0.76875</v>
-      </c>
-      <c r="L18">
-        <v>123</v>
-      </c>
-      <c r="M18">
-        <v>123</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.006355258976803305</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>74</v>
-      </c>
-      <c r="E19">
-        <v>0.73</v>
-      </c>
-      <c r="F19">
-        <v>0.27</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>3127</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K19">
-        <v>0.746031746031746</v>
+        <v>0.725</v>
       </c>
       <c r="L19">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1459,21 +1462,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20">
-        <v>0.7441860465116279</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L20">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M20">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1485,21 +1488,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L21">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1511,21 +1514,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>0.6571428571428571</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="L22">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1537,21 +1540,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>0.6411764705882353</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L23">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>218</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1563,21 +1566,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>122</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>0.64</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1589,21 +1592,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>0.6382978723404256</v>
+        <v>0.68</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1615,47 +1618,47 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>0.6326530612244898</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L26">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="M26">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="N26">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>108</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>0.6</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1667,21 +1670,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>26</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>0.5983263598326359</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L28">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1693,21 +1696,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>0.5957446808510638</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L29">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="M29">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1719,21 +1722,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>38</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>0.5857142857142857</v>
+        <v>0.5864406779661017</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="M30">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1745,21 +1748,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K31">
-        <v>0.5617977528089888</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L31">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M31">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1776,16 +1779,16 @@
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K32">
-        <v>0.4313725490196079</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1797,47 +1800,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33">
-        <v>0.4027777777777778</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L33">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="M33">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N33">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K34">
-        <v>0.2564102564102564</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L34">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M34">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1849,85 +1852,319 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K35">
-        <v>0.02224694104560623</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N35">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>879</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="K36">
-        <v>0.01697579377554228</v>
+        <v>0.4523809523809524</v>
       </c>
       <c r="L36">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="M36">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="N36">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>3127</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K37">
+        <v>0.4487179487179487</v>
+      </c>
+      <c r="L37">
+        <v>35</v>
+      </c>
+      <c r="M37">
+        <v>35</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K38">
+        <v>0.4444444444444444</v>
+      </c>
+      <c r="L38">
+        <v>20</v>
+      </c>
+      <c r="M38">
+        <v>20</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K39">
+        <v>0.3508771929824561</v>
+      </c>
+      <c r="L39">
+        <v>20</v>
+      </c>
+      <c r="M39">
+        <v>20</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K40">
+        <v>0.3287671232876712</v>
+      </c>
+      <c r="L40">
+        <v>24</v>
+      </c>
+      <c r="M40">
+        <v>24</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K41">
+        <v>0.3220338983050847</v>
+      </c>
+      <c r="L41">
+        <v>19</v>
+      </c>
+      <c r="M41">
+        <v>19</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K42">
+        <v>0.05288461538461538</v>
+      </c>
+      <c r="L42">
+        <v>22</v>
+      </c>
+      <c r="M42">
+        <v>22</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K43">
+        <v>0.02950310559006211</v>
+      </c>
+      <c r="L43">
+        <v>19</v>
+      </c>
+      <c r="M43">
+        <v>25</v>
+      </c>
+      <c r="N43">
+        <v>0.76</v>
+      </c>
+      <c r="O43">
+        <v>0.24</v>
+      </c>
+      <c r="P43" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K44">
+        <v>0.0289210233592881</v>
+      </c>
+      <c r="L44">
+        <v>26</v>
+      </c>
+      <c r="M44">
+        <v>28</v>
+      </c>
+      <c r="N44">
+        <v>0.93</v>
+      </c>
+      <c r="O44">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K45">
+        <v>0.01413760603204524</v>
+      </c>
+      <c r="L45">
+        <v>45</v>
+      </c>
+      <c r="M45">
+        <v>63</v>
+      </c>
+      <c r="N45">
+        <v>0.71</v>
+      </c>
+      <c r="O45">
+        <v>0.29</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>3138</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K37">
-        <v>0.008983451536643027</v>
-      </c>
-      <c r="L37">
-        <v>19</v>
-      </c>
-      <c r="M37">
-        <v>47</v>
-      </c>
-      <c r="N37">
-        <v>0.4</v>
-      </c>
-      <c r="O37">
-        <v>0.6</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>2096</v>
+      <c r="K46">
+        <v>0.009929078014184398</v>
+      </c>
+      <c r="L46">
+        <v>21</v>
+      </c>
+      <c r="M46">
+        <v>49</v>
+      </c>
+      <c r="N46">
+        <v>0.43</v>
+      </c>
+      <c r="O46">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>2094</v>
       </c>
     </row>
   </sheetData>
